--- a/小テスト_板垣.xlsx
+++ b/小テスト_板垣.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.itagaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.itagaki\Documents\Training\51_Java_Quiz\Quiz_0502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF171FA-C8E0-477F-B85D-813D87F39207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F25D5A-F690-4361-A52C-D95F38947136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="825" windowWidth="10005" windowHeight="10020" firstSheet="2" activeTab="3" xr2:uid="{C014E774-B6BC-4061-A1A4-02B95FF77040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C014E774-B6BC-4061-A1A4-02B95FF77040}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラムの仕組み&amp;オブジェクト指向" sheetId="1" r:id="rId1"/>
@@ -1601,9 +1601,6 @@
     <t>継承、カプセル化、ポリモーフィズム</t>
   </si>
   <si>
-    <t>クラスの内容を基に、オブジェクトを作成すること。</t>
-  </si>
-  <si>
     <t>A.予約語</t>
   </si>
   <si>
@@ -1690,6 +1687,9 @@
   </si>
   <si>
     <t>　　・fortuneが３なら"大吉です"</t>
+  </si>
+  <si>
+    <t>クラスの内容を基に、オブジェクトを実体化させること。</t>
   </si>
 </sst>
 </file>
@@ -2213,42 +2213,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2256,8 +2220,44 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2842,9 +2842,7 @@
   </sheetPr>
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:O21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2864,28 +2862,28 @@
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1">
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
@@ -2898,28 +2896,28 @@
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
@@ -2927,28 +2925,28 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="G20" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="G20" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3017,8 +3015,8 @@
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46" t="s">
-        <v>102</v>
+      <c r="J11" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -3041,8 +3039,8 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="47" t="s">
-        <v>103</v>
+      <c r="K15" s="35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -3052,8 +3050,8 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="47" t="s">
-        <v>104</v>
+      <c r="O17" s="35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -3063,35 +3061,35 @@
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="47" t="s">
-        <v>105</v>
+      <c r="R19" s="35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="5"/>
-      <c r="R20" s="47" t="s">
-        <v>106</v>
+      <c r="R20" s="35" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="47" t="s">
-        <v>107</v>
+      <c r="N21" s="35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="47" t="s">
-        <v>110</v>
+      <c r="R23" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="R24" s="47" t="s">
-        <v>108</v>
+      <c r="R24" s="35" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -3100,8 +3098,8 @@
       </c>
     </row>
     <row r="26" spans="2:18">
-      <c r="O26" s="47" t="s">
-        <v>109</v>
+      <c r="O26" s="35" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3317,8 +3315,8 @@
       </c>
     </row>
     <row r="35" spans="3:6" ht="240">
-      <c r="E35" s="48" t="s">
-        <v>111</v>
+      <c r="E35" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="F35" s="20"/>
     </row>
@@ -3344,7 +3342,7 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3547,85 +3545,85 @@
     </row>
     <row r="22" spans="2:4" ht="6.6" customHeight="1"/>
     <row r="23" spans="2:4">
-      <c r="B23" s="49" t="s">
-        <v>112</v>
+      <c r="B23" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="50" t="s">
-        <v>113</v>
+      <c r="B24" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="49" t="s">
-        <v>114</v>
+      <c r="B25" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="30"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="49" t="s">
-        <v>115</v>
+      <c r="B26" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="50" t="s">
-        <v>116</v>
+      <c r="B27" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="50" t="s">
-        <v>117</v>
+      <c r="B28" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="50" t="s">
-        <v>118</v>
+      <c r="B29" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="30"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="50" t="s">
-        <v>119</v>
+      <c r="B30" s="38" t="s">
+        <v>118</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="30"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="50" t="s">
-        <v>120</v>
+      <c r="B31" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="49" t="s">
-        <v>121</v>
+      <c r="B32" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="30"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="49" t="s">
-        <v>122</v>
+      <c r="B33" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="30"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="49" t="s">
-        <v>123</v>
+      <c r="B34" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="30"/>
@@ -3667,36 +3665,36 @@
       <c r="C41" s="32"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="38"/>
+      <c r="B42" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="47"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3763,30 +3761,30 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
@@ -3794,18 +3792,18 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="47" t="s">
+    <row r="20" spans="2:3">
+      <c r="C20" s="35" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="47" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:3">

--- a/小テスト_板垣.xlsx
+++ b/小テスト_板垣.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.itagaki\Documents\Training\51_Java_Quiz\Quiz_0502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F25D5A-F690-4361-A52C-D95F38947136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F1B4F7-EC06-4024-8387-26DBEFC16F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C014E774-B6BC-4061-A1A4-02B95FF77040}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <rPh sb="9" eb="11">
       <t>カダイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題１．「コンパイル」とは何か、説明しなさい。</t>
@@ -72,7 +72,7 @@
     <rPh sb="18" eb="20">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題２．オブジェクト指向は効率よく開発するための考え方の一つで、プロジェクトを手順ではなくモノの作成と操作として捉えます。</t>
@@ -112,7 +112,7 @@
     <rPh sb="58" eb="59">
       <t>トラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　　　　　　では、開発を効率よく行うための3要素としてあげられるものを全て答えなさい。</t>
@@ -134,7 +134,7 @@
     <rPh sb="37" eb="38">
       <t>コタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題３．「インスタンス化」とは何か、説明しなさい。</t>
@@ -153,18 +153,18 @@
     <rPh sb="20" eb="22">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>①日次テスト（変数、定数）</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>前提</t>
     <rPh sb="0" eb="2">
       <t>ゼンテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・練習問題１はA.に当てはまる単語を入れてください。</t>
@@ -183,7 +183,7 @@
     <rPh sb="18" eb="19">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>・練習問題２～７はeclipseを使用します</t>
@@ -196,7 +196,7 @@
     <rPh sb="17" eb="19">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・下記の内容で、パッケージとクラスを作成してください</t>
@@ -209,18 +209,18 @@
     <rPh sb="18" eb="20">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　パッケージ名「jp.co.aforce.practice」</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　クラス名「PracticeTest1」</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題１．変数名には○○を使うことは出来ない</t>
@@ -239,15 +239,15 @@
     <rPh sb="19" eb="21">
       <t>デキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　ヒント：Java言語システムが持つキーワードで、</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>既に特別な意味を持っている単語（intやvoidも含む）</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題２．コンソールに“Hello World”と表示するプログラムを作成しなさい。</t>
@@ -257,7 +257,7 @@
     <rPh sb="2" eb="4">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題３．int 型の変数 x に数値 11 を代入し、コンソールに“x=11”のように表示するプログラムを作成しなさい。</t>
@@ -267,7 +267,7 @@
     <rPh sb="2" eb="4">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題４．int 型の変数 y、z に数値 13、17 を代入し、y、z の値をコンソールに“x=13  y=17”のように表示するプログラムを作成しなさい。</t>
@@ -277,7 +277,7 @@
     <rPh sb="2" eb="4">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題５．int型の変数totalに、変数y、zの和を代入し、totalの値をコンソールに出力しなさい。</t>
@@ -308,7 +308,7 @@
     <rPh sb="46" eb="48">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題６．int型の定数を作成し（定数名は命名規則に沿ったものなら何でも良い、全て大文字）数値６を代入し、宣言しなさい。</t>
@@ -363,7 +363,7 @@
     <rPh sb="54" eb="56">
       <t>センゲン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題７．int型の変数sumに、練習問題５で出力したtotalと練習問題６で宣言した定数の和を代入し、sumの値をコンソールに出力しなさい。</t>
@@ -412,14 +412,14 @@
     <rPh sb="65" eb="67">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>②日次テスト（型）</t>
     <rPh sb="7" eb="8">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>・練習問題１～４はeclipseを使用します</t>
@@ -432,32 +432,32 @@
     <rPh sb="17" eb="19">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　クラス名「PracticeTest2」</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>データ型</t>
     <rPh sb="3" eb="4">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サイズ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>格納するデータ</t>
     <rPh sb="0" eb="2">
       <t>カクノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>値の範囲</t>
@@ -467,11 +467,11 @@
     <rPh sb="2" eb="4">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>long</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>大きな整数</t>
@@ -481,15 +481,15 @@
     <rPh sb="3" eb="5">
       <t>セイスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-9223372036854775808 ~ +9223372036854775807</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>普通の整数</t>
@@ -499,15 +499,15 @@
     <rPh sb="3" eb="5">
       <t>セイスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-2147483648 ~ +2147483647</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>short</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>小さな整数</t>
@@ -517,15 +517,15 @@
     <rPh sb="3" eb="5">
       <t>セイスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-32768 ~ +32767</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>byte</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>さらに小さな整数</t>
@@ -535,15 +535,15 @@
     <rPh sb="6" eb="8">
       <t>セイスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-128 ~ +127</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>double</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>普通の小数</t>
@@ -553,15 +553,15 @@
     <rPh sb="3" eb="5">
       <t>ショウスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>±4.94E-324 ~ ±1.79E+308</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>少しあいまいでもよい小数</t>
@@ -571,11 +571,11 @@
     <rPh sb="10" eb="12">
       <t>ショウスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>±3.40E38 ~ ±1.40E45</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>その他の型</t>
@@ -585,19 +585,19 @@
     <rPh sb="4" eb="5">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>boolean：trueかfalse（真か偽か）</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>char：１つの文字</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>String：文字の並び、文字列</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>上のデータ型を参考にして問いに答えなさい</t>
@@ -616,7 +616,7 @@
     <rPh sb="15" eb="16">
       <t>コタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題１．定数名TAXを作成し、消費税率を代入し、コンソールに出力しなさい。</t>
@@ -647,7 +647,7 @@
     <rPh sb="32" eb="34">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題２．int型の変数 x に480を代入し、小数を格納するデータ型の変数priceに x とTAXの積を代入し、コンソールにpriceの値を表示しなさい。</t>
@@ -690,7 +690,7 @@
     <rPh sb="73" eb="75">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題３．文字を格納するデータ型の変数nameを作成し、自分の名前を代入し、コンソールに出力しなさい。</t>
@@ -727,7 +727,7 @@
     <rPh sb="45" eb="47">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題４．文字を格納するデータ型の変数を２つ作成し、"この商品の値段は" と "円です"の文字列をそれぞれ代入し、</t>
@@ -767,7 +767,7 @@
     <rPh sb="54" eb="56">
       <t>ダイニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>"この商品の値段はprice（練習問題２で表示した変数）円です"とコンソールに表示しなさい。</t>
@@ -795,7 +795,7 @@
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題５．下記の図のように、変数「height」を変数「myHeight」に代入するとエラーとなる。</t>
@@ -820,7 +820,7 @@
     <rPh sb="39" eb="41">
       <t>ダイニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -864,7 +864,7 @@
     <rPh sb="30" eb="31">
       <t>コタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>・練習問題はeclipseを使用します</t>
@@ -877,14 +877,14 @@
     <rPh sb="14" eb="16">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　クラス名「PracticeTest3」</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・明示的に書かれていなければ、変数名は任意で指定してください</t>
@@ -906,7 +906,7 @@
     <rPh sb="22" eb="24">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>〇下記のような社員データが存在します。</t>
@@ -919,7 +919,7 @@
     <rPh sb="13" eb="15">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　これらを利用して以下の問いに答えなさい。</t>
@@ -935,35 +935,35 @@
     <rPh sb="15" eb="16">
       <t>コタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
       <t>セイベツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
       <t>ネンレイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>田中太郎</t>
@@ -973,14 +973,14 @@
     <rPh sb="2" eb="4">
       <t>タロウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>練習問題１．文字列型の配列を利用し、田中太郎さんのデータを全て格納しなさい。</t>
@@ -1011,7 +1011,7 @@
     <rPh sb="31" eb="33">
       <t>カクノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題２．問題１で作成した配列を使って、コンソールに「田中太郎」と出力しなさい。</t>
@@ -1042,7 +1042,7 @@
     <rPh sb="34" eb="36">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>⑤日次テスト（制御構文１）</t>
@@ -1052,18 +1052,18 @@
     <rPh sb="9" eb="11">
       <t>コウブン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>・練習問題２～４はeclipseを使用します</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　クラス名「PracticeTest5」</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・特に明示的に書かれていなければ、変数名は任意で指定してください</t>
@@ -1088,7 +1088,7 @@
     <rPh sb="24" eb="26">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題２．下記４つの値を持つ、リストを作成しなさい</t>
@@ -1104,7 +1104,7 @@
     <rPh sb="20" eb="22">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　犬、猫、うさぎ、へび</t>
@@ -1114,7 +1114,7 @@
     <rPh sb="3" eb="4">
       <t>ネコ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題３．問題２で作成したリストを使って、下記の問題に答えなさい</t>
@@ -1142,7 +1142,7 @@
     <rPh sb="28" eb="29">
       <t>コタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　・自分の好きな動物を1匹、変数で定義する</t>
@@ -1164,7 +1164,7 @@
     <rPh sb="17" eb="19">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　　定義した動物が問題２のリストに含まれている場合：「{動物名}はリストに含まれています」とコンソールに出力</t>
@@ -1195,7 +1195,7 @@
     <rPh sb="52" eb="54">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　　定義した動物が問題２のリストに含まれていない場合：「{動物名}はリストに含まれていません」とコンソールに出力</t>
@@ -1226,7 +1226,7 @@
     <rPh sb="54" eb="56">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　　　※コンソールに出力する、{動物名}は自分で定義した変数を使って出力すること</t>
@@ -1254,7 +1254,7 @@
     <rPh sb="34" eb="36">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題４．下記の2020年祝日一覧を参考に、問題に答えなさい（※振替休日は含めていない）</t>
@@ -1294,7 +1294,7 @@
     <rPh sb="38" eb="39">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　・自分の誕生月を設定した変数を定義する</t>
@@ -1316,7 +1316,7 @@
     <rPh sb="16" eb="18">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　　if もしくは switchのどちらかを使って、自分の誕生日月の祝日をコンソールに出力しなさい</t>
@@ -1338,7 +1338,7 @@
     <rPh sb="43" eb="45">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　　※1月から12月全ての条件を記述すること（自分の誕生日月のみ記述するのではない）</t>
@@ -1369,7 +1369,7 @@
     <rPh sb="32" eb="34">
       <t>キジュツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　　※祝日が無い場合は「なし」、複数存在する場合はカンマ（,)区切りで全て出力すること</t>
@@ -1400,7 +1400,7 @@
     <rPh sb="37" eb="39">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>　・なぜ、「 if」 もしくは 「switch」を選んで記述したのか。理由を答えなさい。</t>
@@ -1416,7 +1416,7 @@
     <rPh sb="38" eb="39">
       <t>コタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>⑥日次テスト（制御構文２）</t>
@@ -1426,14 +1426,14 @@
     <rPh sb="9" eb="11">
       <t>コウブン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　クラス名「PracticeTest6」</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題１は以下の乱数を発生させる命令を利用して答えなさい。</t>
@@ -1461,11 +1461,11 @@
     <rPh sb="24" eb="25">
       <t>コタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>int r = new java.util.Random().nextInt()</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>練習問題１．int型の変数fortuneに乱数を代入し、fortuneの値を表示し、その値によって以下のメッセージがそれぞれ出力されるようにしなさい。</t>
@@ -1502,7 +1502,7 @@
     <rPh sb="62" eb="64">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　　・それ以外の数値は"凶です"</t>
@@ -1515,7 +1515,7 @@
     <rPh sb="12" eb="13">
       <t>キョウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　なお、switch文を利用しなさい。</t>
@@ -1525,7 +1525,7 @@
     <rPh sb="12" eb="14">
       <t>リヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題２. １～100までの整数の中で7の倍数を出力し、出力した7の倍数の和を"7の倍数の総合計は○○"となるようコンソールに出力しなさい。</t>
@@ -1568,7 +1568,7 @@
     <rPh sb="64" eb="66">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>練習問題３．以下の画像のように九九がコンソールに出力されるプログラムを作成しなさい。</t>
@@ -1578,11 +1578,11 @@
     <rPh sb="2" eb="4">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>　</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>③日次テスト（配列）</t>
@@ -1592,7 +1592,7 @@
     <rPh sb="7" eb="9">
       <t>ハイレツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>人間が打ち込んだプログラミング言語を、コンピューターが理解できるように機械語に変換すること。</t>
@@ -1675,34 +1675,43 @@
     <t>　12月：（なし）</t>
   </si>
   <si>
-    <t>ユーザーから入力されるインプットがどういったものか予測できるで、
+    <t>　　・fortuneが１なら"吉です"</t>
+  </si>
+  <si>
+    <t>　　・fortuneが２なら"中吉です"</t>
+  </si>
+  <si>
+    <t>　　・fortuneが３なら"大吉です"</t>
+  </si>
+  <si>
+    <t>・switch文は、if文とは違ってすべての条件を判定する必要がなく、
+適応する条件の処理だけを行うので、処理が早く済むから。
+・ユーザーから入力されるインプットがどういったものか予測できるので、
 switch分を選んだ。If文で書くと条件分岐の記述部分が
 冗長になることでコードが煩雑になってしまう可能性を憂慮した。</t>
   </si>
   <si>
-    <t>　　・fortuneが１なら"吉です"</t>
-  </si>
-  <si>
-    <t>　　・fortuneが２なら"中吉です"</t>
-  </si>
-  <si>
-    <t>　　・fortuneが３なら"大吉です"</t>
-  </si>
-  <si>
-    <t>クラスの内容を基に、オブジェクトを実体化させること。</t>
+    <t>クラスを基に、CPUが実行できるようにオブジェクトを実体化させること。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2126,76 +2135,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2208,55 +2217,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2954,7 +2987,7 @@
     <mergeCell ref="G14:O15"/>
     <mergeCell ref="G20:O21"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2964,9 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B1E964-213B-4716-A233-29BFB89E2233}">
   <dimension ref="B2:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -3103,7 +3134,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3113,9 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64F9C3D-E6E4-4974-B083-D48FD44E50D8}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -3329,7 +3358,7 @@
       <c r="F37" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3438,7 +3467,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3448,9 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31864359-FA2F-42FD-8941-DA683959DF53}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
@@ -3666,7 +3693,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -3700,7 +3727,7 @@
   <mergeCells count="1">
     <mergeCell ref="B42:I44"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3710,9 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0614E3FD-8DEA-4101-B965-E4625A7D45F2}">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -3764,27 +3789,27 @@
       <c r="B12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
@@ -3793,17 +3818,17 @@
     </row>
     <row r="18" spans="2:3">
       <c r="C18" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -3835,7 +3860,7 @@
   <mergeCells count="1">
     <mergeCell ref="B12:E15"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
